--- a/lora-backend/src/main/resources/网站数据.xlsx
+++ b/lora-backend/src/main/resources/网站数据.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\lora项目\lora-bi\lora-backend\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5CA21C0-D250-45FD-926B-436B5D4283E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B289AB75-66F9-411C-9BC9-7CBF6341953A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{7BDC78B4-1661-48DF-B028-55111E71B17B}"/>
   </bookViews>
@@ -34,17 +34,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>名字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小米</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -409,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3943F5A-D7E4-463E-A3A0-402AED4E4964}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -429,16 +425,40 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
+      <c r="B2">
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>2</v>
+      <c r="B3">
+        <v>4545</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>4545</v>
       </c>
     </row>
   </sheetData>
